--- a/Business Analysis/data/user_7.xlsx
+++ b/Business Analysis/data/user_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539FD7F-B1FF-4199-8889-21A409791291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97F73C-29B9-4EA2-8B88-A358CCB497B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1304,7 +1304,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="K1" sqref="K1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Business Analysis/data/user_7.xlsx
+++ b/Business Analysis/data/user_7.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epistimi\Documents\DataSience\Multimodal\emotion_based_music_recomendation\Business Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD97F73C-29B9-4EA2-8B88-A358CCB497B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
-    <sheet name="Template emotion_datasheet1_use" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -466,7 +468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -991,8 +993,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1300,22 +1330,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1347,7 +1377,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1379,7 +1409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1411,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1443,7 +1473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1475,7 +1505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1507,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1539,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1603,7 +1633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1635,7 +1665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1699,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1731,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1763,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1795,7 +1825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1827,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1859,7 +1889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1891,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1923,7 +1953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1955,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1987,7 +2017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2019,7 +2049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2051,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2083,7 +2113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2115,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2147,7 +2177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2179,7 +2209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2211,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2243,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2275,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2307,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2339,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2371,7 +2401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2403,7 +2433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2435,7 +2465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2467,7 +2497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2499,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2531,7 +2561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2563,7 +2593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2595,7 +2625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2627,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2659,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2691,7 +2721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2723,7 +2753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2755,7 +2785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2787,7 +2817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2819,7 +2849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
